--- a/data/trans_orig/P70C3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>106395</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91038</v>
+        <v>90618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121124</v>
+        <v>120414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5988362480837613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5124013685881148</v>
+        <v>0.5100410090644146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6817377711919624</v>
+        <v>0.6777431670620064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -762,19 +762,19 @@
         <v>86496</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73127</v>
+        <v>75005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97950</v>
+        <v>99934</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5043561888807059</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4264062024376526</v>
+        <v>0.4373532794787439</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.571148654213654</v>
+        <v>0.5827163073798428</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -783,19 +783,19 @@
         <v>192891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172699</v>
+        <v>172308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210694</v>
+        <v>211991</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5524312300512693</v>
+        <v>0.5524312300512692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4946019188506424</v>
+        <v>0.4934824207650551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6034178308769504</v>
+        <v>0.6071346249885486</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>39630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26691</v>
+        <v>27771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52958</v>
+        <v>53554</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2230554907819806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1502312734040893</v>
+        <v>0.1563090792051257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2980685650892231</v>
+        <v>0.3014266723972404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -833,19 +833,19 @@
         <v>40296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30641</v>
+        <v>30031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52011</v>
+        <v>51893</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2349669715128992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1786660834910337</v>
+        <v>0.1751082424147672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.303274044497624</v>
+        <v>0.3025885728300273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -854,19 +854,19 @@
         <v>79926</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64378</v>
+        <v>65841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98035</v>
+        <v>97086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2289059578834458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1843772865276709</v>
+        <v>0.1885663085614486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2807682094506741</v>
+        <v>0.2780503441696786</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>14707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8533</v>
+        <v>8653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24684</v>
+        <v>25689</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08277910303776748</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04802682124421419</v>
+        <v>0.04870473396265297</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1389334360563989</v>
+        <v>0.1445911917301672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -904,19 +904,19 @@
         <v>22994</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15877</v>
+        <v>15268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32358</v>
+        <v>32638</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1340808665008923</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09257736217678787</v>
+        <v>0.08902580851737092</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1886768623100216</v>
+        <v>0.1903136829564723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -925,19 +925,19 @@
         <v>37702</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28110</v>
+        <v>27594</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51018</v>
+        <v>49938</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1079765815182632</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08050482037248081</v>
+        <v>0.07902815536864362</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1461120382385414</v>
+        <v>0.1430195172730673</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>9338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4557</v>
+        <v>4210</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17524</v>
+        <v>17763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05255735176848705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02565078376464558</v>
+        <v>0.02369511709204071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09863236552527849</v>
+        <v>0.09997655748977512</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -975,19 +975,19 @@
         <v>8272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4363</v>
+        <v>4075</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15372</v>
+        <v>15526</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04823625878864679</v>
+        <v>0.0482362587886468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02544065076096305</v>
+        <v>0.02376016557892866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08963241911266061</v>
+        <v>0.09053391476799366</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -996,19 +996,19 @@
         <v>17610</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10786</v>
+        <v>10825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28045</v>
+        <v>28608</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05043499495223437</v>
+        <v>0.05043499495223436</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03089119549059343</v>
+        <v>0.03100340661668781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08031928082908633</v>
+        <v>0.08193173800957691</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7225</v>
+        <v>7317</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01166864780391486</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04066687371491488</v>
+        <v>0.04118415987702572</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1046,19 +1046,19 @@
         <v>9241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5033</v>
+        <v>4899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15611</v>
+        <v>15205</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05388250823090732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02934579767000011</v>
+        <v>0.02856746331825872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09102602167026085</v>
+        <v>0.08866193608585173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1067,19 +1067,19 @@
         <v>11314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6926</v>
+        <v>6527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18730</v>
+        <v>18053</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03240249334613208</v>
+        <v>0.03240249334613207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01983676856849567</v>
+        <v>0.01869370413208429</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05364115814206204</v>
+        <v>0.0517022944310133</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>5526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1553</v>
+        <v>1649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13474</v>
+        <v>13805</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03110315852408877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008738189565023886</v>
+        <v>0.009284054223745421</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07583585846652074</v>
+        <v>0.07770029427036561</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1117,19 +1117,19 @@
         <v>4198</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1424</v>
+        <v>1476</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8414</v>
+        <v>8786</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02447720608594851</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008305016850346092</v>
+        <v>0.008609423018859376</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04906319324316723</v>
+        <v>0.05123133558133004</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1138,19 +1138,19 @@
         <v>9724</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4771</v>
+        <v>4703</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18920</v>
+        <v>18200</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02784874224865538</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01366404305967573</v>
+        <v>0.01347054755572856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05418479953035178</v>
+        <v>0.05212306239574195</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>237662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>213375</v>
+        <v>211586</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263448</v>
+        <v>264714</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4667576413118336</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4190598491225281</v>
+        <v>0.4155463870501845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5174014214791774</v>
+        <v>0.5198875675111222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -1263,19 +1263,19 @@
         <v>183748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166283</v>
+        <v>167757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199557</v>
+        <v>200462</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5113217821182946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4627235048496763</v>
+        <v>0.4668241063584825</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5553164167911566</v>
+        <v>0.5578337290868515</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>427</v>
@@ -1284,19 +1284,19 @@
         <v>421409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>390064</v>
+        <v>390246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>452437</v>
+        <v>451329</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4851961592721218</v>
+        <v>0.485196159272122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4491066894940324</v>
+        <v>0.4493157713867282</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5209208226241728</v>
+        <v>0.5196449198519737</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>117421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96186</v>
+        <v>98161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>139894</v>
+        <v>140485</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2306090033811956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1889055124177659</v>
+        <v>0.1927850065796251</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2747450630934267</v>
+        <v>0.275906474118896</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -1334,19 +1334,19 @@
         <v>84214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71918</v>
+        <v>70692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101045</v>
+        <v>99059</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2343460074987362</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.200129786696332</v>
+        <v>0.1967177490035774</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2811808888166422</v>
+        <v>0.2756548661142836</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>206</v>
@@ -1355,19 +1355,19 @@
         <v>201635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>177294</v>
+        <v>178277</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227416</v>
+        <v>230210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2321551976147654</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2041306386871674</v>
+        <v>0.205261918414372</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2618383741993816</v>
+        <v>0.2650555445130449</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>71941</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54690</v>
+        <v>54211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94670</v>
+        <v>92038</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1412882144289498</v>
+        <v>0.1412882144289497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1074093803065614</v>
+        <v>0.1064673668779263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1859273391337407</v>
+        <v>0.1807587069284617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1405,19 +1405,19 @@
         <v>36343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27380</v>
+        <v>27811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47514</v>
+        <v>48855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1011324861175438</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07619003982764491</v>
+        <v>0.07739116076168739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1322180136192588</v>
+        <v>0.1359519724000936</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1426,19 +1426,19 @@
         <v>108283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90290</v>
+        <v>87783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134674</v>
+        <v>131434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1246736874958743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1039567646058365</v>
+        <v>0.1010699383960586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1550594099749762</v>
+        <v>0.1513286952682829</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>51953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37534</v>
+        <v>38338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70597</v>
+        <v>73545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1020331394798678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07371602904459702</v>
+        <v>0.07529451074230487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1386499911519008</v>
+        <v>0.1444400960355492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -1476,19 +1476,19 @@
         <v>34536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25356</v>
+        <v>25955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45347</v>
+        <v>45408</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09610602163267259</v>
+        <v>0.09610602163267261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07055913672907999</v>
+        <v>0.07222713832347409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1261897178461604</v>
+        <v>0.1263590200007844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1497,19 +1497,19 @@
         <v>86489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69270</v>
+        <v>68814</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>108913</v>
+        <v>109155</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0995807805450713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0797553866440078</v>
+        <v>0.07923015902901091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1253985109853343</v>
+        <v>0.1256768306129143</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>23054</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14067</v>
+        <v>14594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34301</v>
+        <v>34631</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04527643411370558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02762660948454917</v>
+        <v>0.0286614787424987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06736657370434264</v>
+        <v>0.06801324142958957</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1547,19 +1547,19 @@
         <v>14564</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9530</v>
+        <v>9241</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22469</v>
+        <v>23361</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04052882942084933</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0265204808555261</v>
+        <v>0.02571631570297257</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06252557920962598</v>
+        <v>0.0650088562484066</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>42</v>
@@ -1568,19 +1568,19 @@
         <v>37618</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27147</v>
+        <v>27317</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>50018</v>
+        <v>51182</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04331210151773445</v>
+        <v>0.04331210151773444</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03125569752408124</v>
+        <v>0.03145158060144907</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05758944998814348</v>
+        <v>0.05892952789344393</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>7147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2892</v>
+        <v>3062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14353</v>
+        <v>15132</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01403556728444768</v>
+        <v>0.01403556728444767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005679682698488357</v>
+        <v>0.006013491113079203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02818900430352769</v>
+        <v>0.02971825366214584</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1618,19 +1618,19 @@
         <v>5953</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2780</v>
+        <v>2598</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12030</v>
+        <v>10981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01656487321190329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007737263146398003</v>
+        <v>0.007230139972206891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03347598167384218</v>
+        <v>0.03055683859262404</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1639,19 +1639,19 @@
         <v>13099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7595</v>
+        <v>8108</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23130</v>
+        <v>21974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01508207355443263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008744331423735359</v>
+        <v>0.00933529444938757</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02663151218143294</v>
+        <v>0.02529986426716054</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>377793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>351226</v>
+        <v>352343</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>403907</v>
+        <v>406981</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6023541832854146</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5599956127256283</v>
+        <v>0.5617764024945073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6439901464433975</v>
+        <v>0.648892525216652</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>380</v>
@@ -1764,19 +1764,19 @@
         <v>282025</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>263496</v>
+        <v>262795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>303015</v>
+        <v>300223</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5790325313758279</v>
+        <v>0.579032531375828</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5409896066211873</v>
+        <v>0.5395502433228078</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6221274708604533</v>
+        <v>0.6163955571376151</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>706</v>
@@ -1785,19 +1785,19 @@
         <v>659818</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>627073</v>
+        <v>626231</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>691510</v>
+        <v>692081</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5921598387181943</v>
+        <v>0.5921598387181944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5627726601738914</v>
+        <v>0.5620162477962469</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.620602044812436</v>
+        <v>0.6211139178464535</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>135153</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114037</v>
+        <v>113540</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158858</v>
+        <v>159552</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2154885854440665</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1818214131917989</v>
+        <v>0.1810293040706732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2532844673458914</v>
+        <v>0.2543894597527545</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>170</v>
@@ -1835,19 +1835,19 @@
         <v>117941</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103786</v>
+        <v>101753</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134273</v>
+        <v>134698</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.242147231964562</v>
+        <v>0.2421472319645621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2130845984171042</v>
+        <v>0.2089119079341839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2756786340466653</v>
+        <v>0.2765524621511083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>294</v>
@@ -1856,19 +1856,19 @@
         <v>253094</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>228232</v>
+        <v>226419</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>284158</v>
+        <v>282497</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.227141594818327</v>
+        <v>0.2271415948183271</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2048288158514823</v>
+        <v>0.2032020755351972</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2550203287292995</v>
+        <v>0.2535298663000617</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>37515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27731</v>
+        <v>26660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51335</v>
+        <v>50744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05981323766801317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0442139897098865</v>
+        <v>0.04250646046260023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08184790289536253</v>
+        <v>0.0809071703459487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1906,19 +1906,19 @@
         <v>33564</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25409</v>
+        <v>24956</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44111</v>
+        <v>44755</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0689114568642633</v>
+        <v>0.06891145686426331</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05216678186090411</v>
+        <v>0.05123853408002126</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09056471370471801</v>
+        <v>0.09188807277959418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -1927,19 +1927,19 @@
         <v>71079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56088</v>
+        <v>56068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87044</v>
+        <v>86660</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06379024503413991</v>
+        <v>0.06379024503413994</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05033688390176417</v>
+        <v>0.05031829802224697</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07811884860423708</v>
+        <v>0.07777354297301883</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>40558</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28242</v>
+        <v>29370</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53821</v>
+        <v>56815</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06466586838128083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04502897377932885</v>
+        <v>0.04682707328650872</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08581242652662557</v>
+        <v>0.09058569084984602</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -1977,19 +1977,19 @@
         <v>28293</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20398</v>
+        <v>20738</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38099</v>
+        <v>37465</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0580898048626121</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0418798636516483</v>
+        <v>0.04257743170913468</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07822118736122073</v>
+        <v>0.0769201708066022</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -1998,19 +1998,19 @@
         <v>68851</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53786</v>
+        <v>54814</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83948</v>
+        <v>86344</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06179134398373255</v>
+        <v>0.06179134398373257</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04827034484871822</v>
+        <v>0.04919301145168131</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07533968292359174</v>
+        <v>0.07749042425754966</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>23106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13917</v>
+        <v>13587</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37380</v>
+        <v>36986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03683992170042832</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02218904121073002</v>
+        <v>0.02166319040475884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05959865193684245</v>
+        <v>0.05897062219443923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2048,19 +2048,19 @@
         <v>21826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14411</v>
+        <v>14382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35548</v>
+        <v>34295</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04481164002048109</v>
+        <v>0.0448116400204811</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02958802590742239</v>
+        <v>0.02952883474741259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07298426840316967</v>
+        <v>0.07041097454639315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2069,19 +2069,19 @@
         <v>44932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32636</v>
+        <v>33190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63292</v>
+        <v>63212</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04032451377231467</v>
+        <v>0.04032451377231468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02928913023880895</v>
+        <v>0.02978637115066969</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05680241400693131</v>
+        <v>0.05673048544748759</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>13070</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7127</v>
+        <v>7122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>23049</v>
+        <v>22964</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02083820352079663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0113639991319231</v>
+        <v>0.01135552400921777</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03674897804094047</v>
+        <v>0.03661364646715643</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2119,19 +2119,19 @@
         <v>3413</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1179</v>
+        <v>1265</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8050</v>
+        <v>7683</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.007007334912253534</v>
+        <v>0.007007334912253535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002421228163504151</v>
+        <v>0.002598013501500527</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01652746591930257</v>
+        <v>0.01577374595224561</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -2140,19 +2140,19 @@
         <v>16483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9854</v>
+        <v>10201</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27096</v>
+        <v>27633</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01479246367329131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008843491304926539</v>
+        <v>0.009155121222144583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02431778178603303</v>
+        <v>0.02479977366850375</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>356145</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>331604</v>
+        <v>328359</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>384223</v>
+        <v>382095</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6020866447013828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5605990569294541</v>
+        <v>0.5551127595806991</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.649554443936976</v>
+        <v>0.6459571304225733</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>333</v>
@@ -2265,19 +2265,19 @@
         <v>259756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>240894</v>
+        <v>241060</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>277805</v>
+        <v>280582</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5559231075407174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5155557027669797</v>
+        <v>0.5159101014079198</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5945525423812011</v>
+        <v>0.6004952338699311</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>634</v>
@@ -2286,19 +2286,19 @@
         <v>615901</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>584900</v>
+        <v>581420</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>650516</v>
+        <v>650476</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5817139627415413</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.552433664111152</v>
+        <v>0.5491468432145062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6144075749374645</v>
+        <v>0.6143698265417525</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>146732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>123404</v>
+        <v>125640</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>171942</v>
+        <v>169681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2480603674647624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2086231668630933</v>
+        <v>0.2124026636220718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2906789571036331</v>
+        <v>0.2868566769497651</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>225</v>
@@ -2336,19 +2336,19 @@
         <v>139190</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>121294</v>
+        <v>122939</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156117</v>
+        <v>157303</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2978916176551795</v>
+        <v>0.2978916176551794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2595903869263811</v>
+        <v>0.2631113837478393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3341171204070095</v>
+        <v>0.3366554158604669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>375</v>
@@ -2357,19 +2357,19 @@
         <v>285922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>258322</v>
+        <v>256825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>315503</v>
+        <v>317218</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2700516678336535</v>
+        <v>0.2700516678336534</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2439835108136665</v>
+        <v>0.2425694300863038</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2979904419789804</v>
+        <v>0.2996102882049879</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>34095</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24114</v>
+        <v>23756</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49976</v>
+        <v>50709</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05763974433331186</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04076557098346079</v>
+        <v>0.04016053701377134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08448845138808733</v>
+        <v>0.08572712776298702</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>32</v>
@@ -2407,19 +2407,19 @@
         <v>24201</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16548</v>
+        <v>17315</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>35049</v>
+        <v>34075</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05179481577044411</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03541508753638293</v>
+        <v>0.03705824056003196</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07501003541223339</v>
+        <v>0.0729268342674918</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>62</v>
@@ -2428,19 +2428,19 @@
         <v>58296</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>45749</v>
+        <v>44795</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>76387</v>
+        <v>74815</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05506028708169637</v>
+        <v>0.05506028708169638</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04320947771446194</v>
+        <v>0.04230833683717036</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07214701717219886</v>
+        <v>0.07066216252707709</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>26258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15979</v>
+        <v>15964</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41972</v>
+        <v>43937</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04439157392413055</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02701411419176753</v>
+        <v>0.02698795752329253</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07095647211457413</v>
+        <v>0.07427793676163737</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -2478,19 +2478,19 @@
         <v>23364</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16172</v>
+        <v>16290</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32727</v>
+        <v>31315</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05000366585023935</v>
+        <v>0.05000366585023934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03461022725341891</v>
+        <v>0.03486245146217948</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07004133305457033</v>
+        <v>0.06701932572177519</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -2499,19 +2499,19 @@
         <v>49623</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36114</v>
+        <v>37238</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>66545</v>
+        <v>68980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04686827677170673</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03410973972194175</v>
+        <v>0.03517138303542646</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06285165336691567</v>
+        <v>0.06515158693824383</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>19298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10936</v>
+        <v>10469</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32395</v>
+        <v>32873</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0326250842715711</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0184874074337295</v>
+        <v>0.01769785451618309</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05476601327989979</v>
+        <v>0.05557421742628685</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2549,19 +2549,19 @@
         <v>13227</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8131</v>
+        <v>8064</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21739</v>
+        <v>21781</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02830867911065733</v>
+        <v>0.02830867911065732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01740164092302651</v>
+        <v>0.01725739403287931</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04652461509659567</v>
+        <v>0.0466161966498979</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>32</v>
@@ -2570,19 +2570,19 @@
         <v>32526</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21782</v>
+        <v>22771</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47625</v>
+        <v>46538</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03072018800577881</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02057316958948268</v>
+        <v>0.02150710338904116</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04498189117358258</v>
+        <v>0.04395495793437307</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>8989</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3495</v>
+        <v>4216</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17318</v>
+        <v>18594</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01519658530484124</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005908341030800919</v>
+        <v>0.007126991182793159</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02927771574536437</v>
+        <v>0.03143368323394449</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2620,19 +2620,19 @@
         <v>7513</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3577</v>
+        <v>3637</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13451</v>
+        <v>13808</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01607811407276252</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00765546827231022</v>
+        <v>0.007784056843156857</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02878673186186969</v>
+        <v>0.02955095500965647</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -2641,19 +2641,19 @@
         <v>16502</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9407</v>
+        <v>9926</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26733</v>
+        <v>26715</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01558561756562332</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008885258157728849</v>
+        <v>0.009375148565239208</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02524910319944592</v>
+        <v>0.02523180363964255</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>1077994</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1029612</v>
+        <v>1029100</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1125091</v>
+        <v>1125282</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5657109252122402</v>
+        <v>0.5657109252122401</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5403207775476098</v>
+        <v>0.5400518537146685</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.59042638977531</v>
+        <v>0.5905268056440277</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1049</v>
@@ -2766,19 +2766,19 @@
         <v>812025</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>779111</v>
+        <v>778078</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>845528</v>
+        <v>844926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5467553371127022</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5245938391248103</v>
+        <v>0.5238982192583963</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5693140752156024</v>
+        <v>0.5689084420254507</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1952</v>
@@ -2787,19 +2787,19 @@
         <v>1890019</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1823354</v>
+        <v>1828168</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1951385</v>
+        <v>1947465</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.5574082016284612</v>
+        <v>0.5574082016284613</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5377470762918047</v>
+        <v>0.5391670460684125</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5755064865496831</v>
+        <v>0.5743501736865758</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>438936</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>399080</v>
+        <v>397906</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>480893</v>
+        <v>481398</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2303452171979559</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.20942940518609</v>
+        <v>0.2088135824198795</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.252363555646425</v>
+        <v>0.2526283249115302</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>549</v>
@@ -2837,19 +2837,19 @@
         <v>381642</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>352698</v>
+        <v>351187</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>412658</v>
+        <v>410370</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2569682983295379</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2374798415832084</v>
+        <v>0.2364624899435528</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2778522735250388</v>
+        <v>0.2763116892983046</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>958</v>
@@ -2858,19 +2858,19 @@
         <v>820578</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>771745</v>
+        <v>770373</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>874524</v>
+        <v>871525</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.242006373919832</v>
+        <v>0.2420063739198321</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2276045205333082</v>
+        <v>0.2271999515702479</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2579164806786627</v>
+        <v>0.257031908440962</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>158257</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>131572</v>
+        <v>135187</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>188246</v>
+        <v>188097</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.08305042705881133</v>
+        <v>0.08305042705881131</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06904672430205726</v>
+        <v>0.0709436736394618</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09878796558681777</v>
+        <v>0.09870950051136872</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>156</v>
@@ -2908,19 +2908,19 @@
         <v>117103</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101386</v>
+        <v>100024</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>137564</v>
+        <v>136657</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07884803416029619</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06826527574302876</v>
+        <v>0.0673482928066369</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09262504770282876</v>
+        <v>0.09201410962011192</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>290</v>
@@ -2929,19 +2929,19 @@
         <v>275360</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>243694</v>
+        <v>243829</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>311594</v>
+        <v>310267</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08120973995147451</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07187071624568203</v>
+        <v>0.07191059407814199</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09189604205030263</v>
+        <v>0.09150453711150125</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>128107</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>106152</v>
+        <v>102956</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>156274</v>
+        <v>154708</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06722816610235081</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05570635662618509</v>
+        <v>0.05402920776621762</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08200956369154455</v>
+        <v>0.08118758243215254</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>130</v>
@@ -2979,19 +2979,19 @@
         <v>94467</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77591</v>
+        <v>78053</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>110881</v>
+        <v>109917</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06360656131692093</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05224365744637634</v>
+        <v>0.05255477977248389</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07465884276801496</v>
+        <v>0.07400957607656379</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>238</v>
@@ -3000,19 +3000,19 @@
         <v>222574</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>193890</v>
+        <v>194655</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>257432</v>
+        <v>254253</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06564186958096521</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05718255644976946</v>
+        <v>0.05740803180195799</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07592225051183704</v>
+        <v>0.07498494341289508</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>67531</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49770</v>
+        <v>51348</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>87951</v>
+        <v>89848</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03543894389488212</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02611840823693573</v>
+        <v>0.02694625799926395</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04615503060151951</v>
+        <v>0.04715044298240863</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>76</v>
@@ -3050,19 +3050,19 @@
         <v>58858</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>45989</v>
+        <v>45844</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>76123</v>
+        <v>73128</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03963077790041437</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03096541487869056</v>
+        <v>0.03086788342096014</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05125531914875012</v>
+        <v>0.04923863632134046</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>133</v>
@@ -3071,19 +3071,19 @@
         <v>126389</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>102447</v>
+        <v>104973</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>150858</v>
+        <v>153610</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03727500610905667</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03021394811198718</v>
+        <v>0.03095877781365733</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04449133348186855</v>
+        <v>0.04530301153895777</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>34731</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23693</v>
+        <v>23645</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>48769</v>
+        <v>50588</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01822632053375978</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01243339448950332</v>
+        <v>0.0124082853648054</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.025593269703259</v>
+        <v>0.02654760746024411</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>29</v>
@@ -3121,19 +3121,19 @@
         <v>21076</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>14360</v>
+        <v>14579</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29704</v>
+        <v>29890</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.01419099118012843</v>
+        <v>0.01419099118012842</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009668931051372624</v>
+        <v>0.009816720870823421</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0200003143833495</v>
+        <v>0.0201255871157151</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>60</v>
@@ -3142,19 +3142,19 @@
         <v>55807</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41849</v>
+        <v>43161</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>74108</v>
+        <v>72200</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01645880881021021</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01234205683012049</v>
+        <v>0.01272908897594606</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02185613239095151</v>
+        <v>0.02129323890843199</v>
       </c>
     </row>
     <row r="38">
